--- a/Dziennik2024.xlsx
+++ b/Dziennik2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szybk\OneDrive\Pulpit\Studia\inzynierka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szybk\OneDrive\Pulpit\Studia\inzynierka\Inzynierka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B73FE-143A-4255-A156-52F25D9095B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36740C2-33FE-4583-841A-D9C59B04CB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF3D5F66-ACDF-49A3-8594-396AB682FC7D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="133">
   <si>
     <t>Godzina</t>
   </si>
@@ -375,6 +375,66 @@
   </si>
   <si>
     <t>020*52,0E</t>
+  </si>
+  <si>
+    <t>56*23,4N</t>
+  </si>
+  <si>
+    <t>020*51,9E</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>56*23,3N</t>
+  </si>
+  <si>
+    <t>020*52,3E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>020*57,3E</t>
+  </si>
+  <si>
+    <t>56*19,8N</t>
+  </si>
+  <si>
+    <t>020*54,2E</t>
+  </si>
+  <si>
+    <t>56*13,2N</t>
+  </si>
+  <si>
+    <t>020*54,5E</t>
+  </si>
+  <si>
+    <t>56*07,1N</t>
+  </si>
+  <si>
+    <t>020*55,8E</t>
+  </si>
+  <si>
+    <t>56*02,4N</t>
+  </si>
+  <si>
+    <t>020*56,2E</t>
+  </si>
+  <si>
+    <t>55*58,3N</t>
+  </si>
+  <si>
+    <t>55*54,1N</t>
+  </si>
+  <si>
+    <t>020*58,7E</t>
+  </si>
+  <si>
+    <t>55*50,1N</t>
+  </si>
+  <si>
+    <t>020*59,7E</t>
   </si>
 </sst>
 </file>
@@ -765,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2DB018-EC3F-4C8E-A36B-34F72611C81F}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,6 +2975,506 @@
         <v>20</v>
       </c>
     </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44">
+        <v>180</v>
+      </c>
+      <c r="E44">
+        <v>341.4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>115</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>8</v>
+      </c>
+      <c r="O44">
+        <v>1020</v>
+      </c>
+      <c r="P44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45">
+        <v>175</v>
+      </c>
+      <c r="E45">
+        <v>345.5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+      <c r="O45">
+        <v>1020</v>
+      </c>
+      <c r="P45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46">
+        <v>175</v>
+      </c>
+      <c r="E46">
+        <v>348.2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>8</v>
+      </c>
+      <c r="O46">
+        <v>1016</v>
+      </c>
+      <c r="P46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47">
+        <v>175</v>
+      </c>
+      <c r="E47">
+        <v>352</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>115</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="O47">
+        <v>1016</v>
+      </c>
+      <c r="P47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>0.79166666666666796</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48">
+        <v>175</v>
+      </c>
+      <c r="E48">
+        <v>357</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>115</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>8</v>
+      </c>
+      <c r="O48">
+        <v>1016</v>
+      </c>
+      <c r="P48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>0.83333333333333504</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49">
+        <v>175</v>
+      </c>
+      <c r="E49">
+        <v>362</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>115</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>8</v>
+      </c>
+      <c r="O49">
+        <v>1015</v>
+      </c>
+      <c r="P49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>0.875000000000002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50">
+        <v>168</v>
+      </c>
+      <c r="E50">
+        <v>366.9</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>8</v>
+      </c>
+      <c r="O50">
+        <v>1014</v>
+      </c>
+      <c r="P50">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>0.91666666666666896</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51">
+        <v>170</v>
+      </c>
+      <c r="E51">
+        <v>371</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>99</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>8</v>
+      </c>
+      <c r="O51">
+        <v>1015</v>
+      </c>
+      <c r="P51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>0.95833333333333603</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52">
+        <v>168</v>
+      </c>
+      <c r="E52">
+        <v>375.4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>8</v>
+      </c>
+      <c r="O52">
+        <v>1015</v>
+      </c>
+      <c r="P52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53">
+        <v>175</v>
+      </c>
+      <c r="E53">
+        <v>379.6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53">
+        <v>1600</v>
+      </c>
+      <c r="J53" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>7</v>
+      </c>
+      <c r="O53">
+        <v>1014</v>
+      </c>
+      <c r="P53">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
